--- a/generated_docs/WR_89877351_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:49 AM</t>
+          <t>Report Generated On: 08/18/2025 09:49 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6609.42</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>676.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>1085.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>742.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>856.4400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>675.1799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>840.0599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,57 +1071,124 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>121.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 30</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>CON-40-AAA-1-B</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>369</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>863.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>CON-40-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
+        </is>
+      </c>
+      <c r="E27" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>369</v>
+      </c>
+      <c r="G27" s="13" t="inlineStr"/>
+      <c r="H27" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>Point 32</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>ARM-8SF-GN-DL-C</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10" t="inlineStr"/>
+      <c r="H28" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H27" s="16" t="n">
-        <v>6609.420000000001</v>
+      <c r="H29" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A27:G27"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
@@ -1129,6 +1196,7 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>

--- a/generated_docs/WR_89877351_WeekEnding_081725.xlsx
+++ b/generated_docs/WR_89877351_WeekEnding_081725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:49 PM</t>
+          <t>Report Generated On: 08/26/2025 10:02 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>6609.42</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>676.26</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>1085.76</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>742.14</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>198.88</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>856.4400000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>675.1799999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>840.0599999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1071,124 +1067,57 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>121.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 30</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>CON-40-AAA-1-B</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>863.46</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B27" s="12" t="inlineStr">
-        <is>
-          <t>CON-40-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C27" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D27" s="12" t="inlineStr">
-        <is>
-          <t>CON,#4/0 AWG,Alum Alloy,One,Bare</t>
-        </is>
-      </c>
-      <c r="E27" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="n">
-        <v>369</v>
-      </c>
-      <c r="G27" s="13" t="inlineStr"/>
-      <c r="H27" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="inlineStr">
-        <is>
-          <t>Point 32</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>ARM-8SF-GN-DL-C</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>ARM,8ftSgl.Fiberglass,Gain,DE Light,Corr</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F28" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10" t="inlineStr"/>
-      <c r="H28" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="15" t="inlineStr">
+      <c r="A27" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H29" s="16" t="n">
-        <v>0</v>
+      <c r="H27" s="16" t="n">
+        <v>6609.420000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
@@ -1196,7 +1125,6 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A29:G29"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
